--- a/assignment01.xlsx
+++ b/assignment01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="126">
   <si>
     <t>CID</t>
   </si>
@@ -363,6 +363,39 @@
   </si>
   <si>
     <t>Department(DID,DName)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60192</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
   </si>
 </sst>
 </file>
@@ -432,9 +465,365 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G7" totalsRowShown="0">
+  <autoFilter ref="A3:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SID"/>
+    <tableColumn id="2" name="CID"/>
+    <tableColumn id="3" name="S_name"/>
+    <tableColumn id="4" name="C_name"/>
+    <tableColumn id="5" name="Grade"/>
+    <tableColumn id="6" name=" F_Name" dataDxfId="1"/>
+    <tableColumn id="7" name="F_phone"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A3:I5" totalsRowShown="0">
+  <autoFilter ref="A3:I5"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="O_Date"/>
+    <tableColumn id="3" name="CID"/>
+    <tableColumn id="4" name="C_Name"/>
+    <tableColumn id="5" name="C_State"/>
+    <tableColumn id="6" name="PID"/>
+    <tableColumn id="7" name="P_Desc"/>
+    <tableColumn id="8" name="P_Price" dataDxfId="0"/>
+    <tableColumn id="9" name="Qty"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A16:C21" totalsRowShown="0">
+  <autoFilter ref="A16:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="PID"/>
+    <tableColumn id="3" name="Qty"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="G16:I20" totalsRowShown="0">
+  <autoFilter ref="G16:I20"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="PID"/>
+    <tableColumn id="2" name="P_Desc"/>
+    <tableColumn id="3" name="P_Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="L16:P21" totalsRowShown="0">
+  <autoFilter ref="L16:P21"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="O_Date"/>
+    <tableColumn id="3" name="CID"/>
+    <tableColumn id="4" name="C_Name"/>
+    <tableColumn id="5" name="C_State"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A25:C30" totalsRowShown="0">
+  <autoFilter ref="A25:C30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="PID"/>
+    <tableColumn id="3" name="Qty"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="G26:I30" totalsRowShown="0">
+  <autoFilter ref="G26:I30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="PID"/>
+    <tableColumn id="2" name="P_Desc"/>
+    <tableColumn id="3" name="P_Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="L25:P30" totalsRowShown="0">
+  <autoFilter ref="L25:P30"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="O_Date"/>
+    <tableColumn id="3" name="CID"/>
+    <tableColumn id="4" name="C_Name"/>
+    <tableColumn id="5" name="C_State"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A34:C36" totalsRowShown="0">
+  <autoFilter ref="A34:C36"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="OID"/>
+    <tableColumn id="2" name="O_Date"/>
+    <tableColumn id="3" name="CID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="F34:H36" totalsRowShown="0">
+  <autoFilter ref="F34:H36"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="CID"/>
+    <tableColumn id="2" name="C_Name"/>
+    <tableColumn id="3" name="C_State"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:G15" totalsRowShown="0">
+  <autoFilter ref="A10:G15"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="1"/>
+    <tableColumn id="2" name="IS318"/>
+    <tableColumn id="3" name="Adams"/>
+    <tableColumn id="4" name="Database"/>
+    <tableColumn id="5" name="A"/>
+    <tableColumn id="6" name="Howser"/>
+    <tableColumn id="7" name="60192"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A3:G8" totalsRowShown="0">
+  <autoFilter ref="A3:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="DID"/>
+    <tableColumn id="2" name="DName"/>
+    <tableColumn id="3" name="EID"/>
+    <tableColumn id="4" name="EName"/>
+    <tableColumn id="5" name="PID"/>
+    <tableColumn id="6" name="Pname"/>
+    <tableColumn id="7" name="Btime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="A12:C17" totalsRowShown="0">
+  <autoFilter ref="A12:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="EID"/>
+    <tableColumn id="2" name="PID"/>
+    <tableColumn id="3" name="Btime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="F12:G17" totalsRowShown="0">
+  <autoFilter ref="F12:G17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="PID"/>
+    <tableColumn id="2" name="Pname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="I12:L17" totalsRowShown="0">
+  <autoFilter ref="I12:L17"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="EID"/>
+    <tableColumn id="2" name="Ename"/>
+    <tableColumn id="3" name="DID"/>
+    <tableColumn id="4" name="Dname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="A22:C27" totalsRowShown="0">
+  <autoFilter ref="A22:C27"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="EID"/>
+    <tableColumn id="2" name="PID"/>
+    <tableColumn id="3" name="Btime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table26" displayName="Table26" ref="E23:F28" totalsRowShown="0">
+  <autoFilter ref="E23:F28"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="PID"/>
+    <tableColumn id="2" name="Pname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table27" displayName="Table27" ref="H23:J28" totalsRowShown="0">
+  <autoFilter ref="H23:J28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="EID"/>
+    <tableColumn id="2" name="Ename"/>
+    <tableColumn id="3" name="DID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table28" displayName="Table28" ref="D31:E33" totalsRowShown="0">
+  <autoFilter ref="D31:E33"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="DID"/>
+    <tableColumn id="2" name="Dname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A19:B23" totalsRowShown="0">
+  <autoFilter ref="A19:B23"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SID"/>
+    <tableColumn id="2" name="S_name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D19:F25" totalsRowShown="0">
+  <autoFilter ref="D19:F25"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SID"/>
+    <tableColumn id="2" name="CID"/>
+    <tableColumn id="3" name="Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="I19:L25" totalsRowShown="0">
+  <autoFilter ref="I19:L25"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CID"/>
+    <tableColumn id="2" name="C_Name"/>
+    <tableColumn id="3" name="Faculty"/>
+    <tableColumn id="4" name="F_Phone"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A29:C35" totalsRowShown="0">
+  <autoFilter ref="A29:C35"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="CID "/>
+    <tableColumn id="2" name="C_Name"/>
+    <tableColumn id="3" name="FID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="F29:H31" totalsRowShown="0">
+  <autoFilter ref="F29:H31"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Faculty"/>
+    <tableColumn id="2" name="F_Phone"/>
+    <tableColumn id="3" name="FID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A38:B42" totalsRowShown="0">
+  <autoFilter ref="A38:B42"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SID"/>
+    <tableColumn id="2" name="S_Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="D38:F44" totalsRowShown="0">
+  <autoFilter ref="D38:F44"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SID"/>
+    <tableColumn id="2" name="CID"/>
+    <tableColumn id="3" name="Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,17 +1113,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17">
@@ -858,8 +1252,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -876,8 +1270,8 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10">
-        <v>60192</v>
+      <c r="G10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1464,6 +1858,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="9">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1471,14 +1876,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75">
@@ -1579,32 +1989,32 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1006</v>
+      <c r="A8" t="s">
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>800</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1624,13 +2034,13 @@
         <v>63</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>325</v>
+        <v>800</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1653,45 +2063,45 @@
         <v>63</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1711,15 +2121,44 @@
         <v>64</v>
       </c>
       <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1007</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>200</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>6</v>
       </c>
     </row>
@@ -2260,6 +2699,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="10">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2268,10 +2719,16 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D31" sqref="D31:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="6" t="s">
@@ -2833,5 +3290,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="8">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>